--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H2">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I2">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J2">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>0.7697371329200001</v>
+        <v>2.550180809188333</v>
       </c>
       <c r="R2">
-        <v>6.927634196280001</v>
+        <v>22.951627282695</v>
       </c>
       <c r="S2">
-        <v>5.318420064498961E-05</v>
+        <v>0.000156325181285138</v>
       </c>
       <c r="T2">
-        <v>5.318420064498961E-05</v>
+        <v>0.000156325181285138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H3">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I3">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J3">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>8.81212998272</v>
+        <v>33.87730631493333</v>
       </c>
       <c r="R3">
-        <v>79.30916984448</v>
+        <v>304.8957568344</v>
       </c>
       <c r="S3">
-        <v>0.0006088651165012958</v>
+        <v>0.002076666890462432</v>
       </c>
       <c r="T3">
-        <v>0.0006088651165012957</v>
+        <v>0.002076666890462432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H4">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I4">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J4">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>2.59731034436</v>
+        <v>17.58912822934666</v>
       </c>
       <c r="R4">
-        <v>23.37579309924</v>
+        <v>158.30215406412</v>
       </c>
       <c r="S4">
-        <v>0.0001794585041879563</v>
+        <v>0.00107820733698302</v>
       </c>
       <c r="T4">
-        <v>0.0001794585041879563</v>
+        <v>0.00107820733698302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H5">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I5">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J5">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>1.532848027392</v>
+        <v>5.554098042223333</v>
       </c>
       <c r="R5">
-        <v>13.795632246528</v>
+        <v>49.98688238001</v>
       </c>
       <c r="S5">
-        <v>0.0001059105681154211</v>
+        <v>0.0003404642448087186</v>
       </c>
       <c r="T5">
-        <v>0.0001059105681154211</v>
+        <v>0.0003404642448087186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J6">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N6">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q6">
-        <v>790.2629832136045</v>
+        <v>681.0393384330124</v>
       </c>
       <c r="R6">
-        <v>7112.366848922441</v>
+        <v>6129.354045897112</v>
       </c>
       <c r="S6">
-        <v>0.05460241329673331</v>
+        <v>0.04174747047709773</v>
       </c>
       <c r="T6">
-        <v>0.05460241329673331</v>
+        <v>0.04174747047709772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J7">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q7">
         <v>9047.114697705669</v>
@@ -883,10 +883,10 @@
         <v>81424.03227935103</v>
       </c>
       <c r="S7">
-        <v>0.6251011452646404</v>
+        <v>0.5545849298726445</v>
       </c>
       <c r="T7">
-        <v>0.6251011452646403</v>
+        <v>0.5545849298726444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J8">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N8">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q8">
-        <v>2666.570356660724</v>
+        <v>4697.270173851042</v>
       </c>
       <c r="R8">
-        <v>23999.13320994652</v>
+        <v>42275.43156465939</v>
       </c>
       <c r="S8">
-        <v>0.1842439539646906</v>
+        <v>0.2879409996447461</v>
       </c>
       <c r="T8">
-        <v>0.1842439539646906</v>
+        <v>0.287940999644746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>574.431976</v>
       </c>
       <c r="I9">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J9">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N9">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O9">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P9">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q9">
-        <v>1573.723032361216</v>
+        <v>1483.251400308268</v>
       </c>
       <c r="R9">
-        <v>14163.50729125094</v>
+        <v>13349.26260277442</v>
       </c>
       <c r="S9">
-        <v>0.1087347848157394</v>
+        <v>0.09092278602724797</v>
       </c>
       <c r="T9">
-        <v>0.1087347848157393</v>
+        <v>0.09092278602724795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H10">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I10">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J10">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N10">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q10">
-        <v>19.76701306507278</v>
+        <v>14.72007231534322</v>
       </c>
       <c r="R10">
-        <v>177.903117585655</v>
+        <v>132.480650838089</v>
       </c>
       <c r="S10">
-        <v>0.001365781568854395</v>
+        <v>0.0009023352245987476</v>
       </c>
       <c r="T10">
-        <v>0.001365781568854395</v>
+        <v>0.0009023352245987474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H11">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I11">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J11">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q11">
-        <v>226.2973696471644</v>
+        <v>195.5455068158755</v>
       </c>
       <c r="R11">
-        <v>2036.67632682448</v>
+        <v>1759.90956134288</v>
       </c>
       <c r="S11">
-        <v>0.01563578551432445</v>
+        <v>0.01198687037889493</v>
       </c>
       <c r="T11">
-        <v>0.01563578551432445</v>
+        <v>0.01198687037889493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H12">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I12">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J12">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N12">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q12">
-        <v>66.69948131026278</v>
+        <v>101.5274048675138</v>
       </c>
       <c r="R12">
-        <v>600.295331792365</v>
+        <v>913.746643807624</v>
       </c>
       <c r="S12">
-        <v>0.004608532504421132</v>
+        <v>0.006223593995429359</v>
       </c>
       <c r="T12">
-        <v>0.004608532504421132</v>
+        <v>0.006223593995429357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H13">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I13">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J13">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N13">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O13">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P13">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q13">
-        <v>39.36386291939199</v>
+        <v>32.05918754210023</v>
       </c>
       <c r="R13">
-        <v>354.2747662745279</v>
+        <v>288.532687878902</v>
       </c>
       <c r="S13">
-        <v>0.002719805884542657</v>
+        <v>0.001965216852983909</v>
       </c>
       <c r="T13">
-        <v>0.002719805884542657</v>
+        <v>0.001965216852983909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H14">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N14">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O14">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P14">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q14">
-        <v>1.657720963048889</v>
+        <v>0.051772232524</v>
       </c>
       <c r="R14">
-        <v>14.91948866744</v>
+        <v>0.465950092716</v>
       </c>
       <c r="S14">
-        <v>0.000114538536003512</v>
+        <v>3.173619535403272E-06</v>
       </c>
       <c r="T14">
-        <v>0.000114538536003512</v>
+        <v>3.173619535403272E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H15">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>141.74704</v>
       </c>
       <c r="O15">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P15">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q15">
-        <v>18.97797569678222</v>
+        <v>0.68775663808</v>
       </c>
       <c r="R15">
-        <v>170.80178127104</v>
+        <v>6.18980974272</v>
       </c>
       <c r="S15">
-        <v>0.001311263838168378</v>
+        <v>4.215923856870851E-05</v>
       </c>
       <c r="T15">
-        <v>0.001311263838168378</v>
+        <v>4.21592385687085E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H16">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N16">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O16">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P16">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q16">
-        <v>5.593618420168889</v>
+        <v>0.357083871584</v>
       </c>
       <c r="R16">
-        <v>50.34256578152001</v>
+        <v>3.213754844256</v>
       </c>
       <c r="S16">
-        <v>0.0003864853489154598</v>
+        <v>2.188911498284485E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003864853489154599</v>
+        <v>2.188911498284484E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H17">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N17">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O17">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P17">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q17">
-        <v>3.301171529216</v>
+        <v>0.112755948232</v>
       </c>
       <c r="R17">
-        <v>29.710543762944</v>
+        <v>1.014803534088</v>
       </c>
       <c r="S17">
-        <v>0.0002280910735166497</v>
+        <v>6.911899730731327E-06</v>
       </c>
       <c r="T17">
-        <v>0.0002280910735166497</v>
+        <v>6.911899730731326E-06</v>
       </c>
     </row>
   </sheetData>
